--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetViews.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetViews.xlsx
@@ -99,7 +99,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -382,7 +382,7 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>

--- a/ClosedXML_Tests/Resource/Examples/Misc/SheetViews.xlsx
+++ b/ClosedXML_Tests/Resource/Examples/Misc/SheetViews.xlsx
@@ -12,6 +12,7 @@
     <x:sheet name="ZoomScaleSheetLayoutView" sheetId="5" r:id="rId5"/>
     <x:sheet name="ZoomScaleTooSmall" sheetId="6" r:id="rId6"/>
     <x:sheet name="ZoomScaleTooBig" sheetId="7" r:id="rId7"/>
+    <x:sheet name="TopLeftCell" sheetId="8" r:id="rId8"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -530,4 +531,23 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:AZ2000"/>
+  <x:sheetViews>
+    <x:sheetView topLeftCell="AZ2000" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData/>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>